--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1rap</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H2">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I2">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J2">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81081479095575</v>
+        <v>3.240187666666666</v>
       </c>
       <c r="N2">
-        <v>2.81081479095575</v>
+        <v>9.720562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09908221282571067</v>
+        <v>0.09865275843473079</v>
       </c>
       <c r="P2">
-        <v>0.09908221282571067</v>
+        <v>0.1091454159637843</v>
       </c>
       <c r="Q2">
-        <v>471.8733517091572</v>
+        <v>0.1951867449148889</v>
       </c>
       <c r="R2">
-        <v>471.8733517091572</v>
+        <v>1.756680704234</v>
       </c>
       <c r="S2">
-        <v>0.03221799755682313</v>
+        <v>9.521041888566301E-06</v>
       </c>
       <c r="T2">
-        <v>0.03221799755682313</v>
+        <v>1.053460397309941E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H3">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I3">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J3">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.85705698945337</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N3">
-        <v>7.85705698945337</v>
+        <v>25.913119</v>
       </c>
       <c r="O3">
-        <v>0.2769640302583039</v>
+        <v>0.2629889512569831</v>
       </c>
       <c r="P3">
-        <v>0.2769640302583039</v>
+        <v>0.2909603232008314</v>
       </c>
       <c r="Q3">
-        <v>1319.025297615772</v>
+        <v>0.5203296710491111</v>
       </c>
       <c r="R3">
-        <v>1319.025297615772</v>
+        <v>4.682967039442</v>
       </c>
       <c r="S3">
-        <v>0.09005881273449363</v>
+        <v>2.538123475588846E-05</v>
       </c>
       <c r="T3">
-        <v>0.09005881273449363</v>
+        <v>2.808319295629254E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H4">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I4">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J4">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.15128893857904</v>
+        <v>3.343997</v>
       </c>
       <c r="N4">
-        <v>3.15128893857904</v>
+        <v>10.031991</v>
       </c>
       <c r="O4">
-        <v>0.11108404662316</v>
+        <v>0.1018134016252344</v>
       </c>
       <c r="P4">
-        <v>0.11108404662316</v>
+        <v>0.1126422235666741</v>
       </c>
       <c r="Q4">
-        <v>529.0313963182407</v>
+        <v>0.2014401499486667</v>
       </c>
       <c r="R4">
-        <v>529.0313963182407</v>
+        <v>1.812961349538</v>
       </c>
       <c r="S4">
-        <v>0.03612056534306945</v>
+        <v>9.826077618829296E-06</v>
       </c>
       <c r="T4">
-        <v>0.03612056534306945</v>
+        <v>1.087211226826034E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H5">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I5">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J5">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.08915051117498</v>
+        <v>8.150031666666665</v>
       </c>
       <c r="N5">
-        <v>5.08915051117498</v>
+        <v>24.450095</v>
       </c>
       <c r="O5">
-        <v>0.1793943505893028</v>
+        <v>0.2481409066266243</v>
       </c>
       <c r="P5">
-        <v>0.1793943505893028</v>
+        <v>0.2745330480476329</v>
       </c>
       <c r="Q5">
-        <v>854.3552982528453</v>
+        <v>0.4909524742455554</v>
       </c>
       <c r="R5">
-        <v>854.3552982528453</v>
+        <v>4.418572268209999</v>
       </c>
       <c r="S5">
-        <v>0.05833263695029485</v>
+        <v>2.394824031019865E-05</v>
       </c>
       <c r="T5">
-        <v>0.05833263695029485</v>
+        <v>2.649764915156231E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H6">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I6">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J6">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.46019922993406</v>
+        <v>9.472446999999999</v>
       </c>
       <c r="N6">
-        <v>9.46019922993406</v>
+        <v>18.944894</v>
       </c>
       <c r="O6">
-        <v>0.3334753597035227</v>
+        <v>0.2884039820564273</v>
       </c>
       <c r="P6">
-        <v>0.3334753597035227</v>
+        <v>0.2127189892210772</v>
       </c>
       <c r="Q6">
-        <v>1588.157260602536</v>
+        <v>0.5706138923153332</v>
       </c>
       <c r="R6">
-        <v>1588.157260602536</v>
+        <v>3.423683353891999</v>
       </c>
       <c r="S6">
-        <v>0.1084342791484456</v>
+        <v>2.783405591041101E-05</v>
       </c>
       <c r="T6">
-        <v>0.1084342791484456</v>
+        <v>2.053141938407757E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H7">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I7">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J7">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.81081479095575</v>
+        <v>3.240187666666666</v>
       </c>
       <c r="N7">
-        <v>2.81081479095575</v>
+        <v>9.720562999999999</v>
       </c>
       <c r="O7">
-        <v>0.09908221282571067</v>
+        <v>0.09865275843473079</v>
       </c>
       <c r="P7">
-        <v>0.09908221282571067</v>
+        <v>0.1091454159637843</v>
       </c>
       <c r="Q7">
-        <v>979.3110609275158</v>
+        <v>0.1883251074994444</v>
       </c>
       <c r="R7">
-        <v>979.3110609275158</v>
+        <v>1.694925967495</v>
       </c>
       <c r="S7">
-        <v>0.06686421526888753</v>
+        <v>9.18633710477021E-06</v>
       </c>
       <c r="T7">
-        <v>0.06686421526888753</v>
+        <v>1.016426820665058E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H8">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I8">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J8">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.85705698945337</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N8">
-        <v>7.85705698945337</v>
+        <v>25.913119</v>
       </c>
       <c r="O8">
-        <v>0.2769640302583039</v>
+        <v>0.2629889512569831</v>
       </c>
       <c r="P8">
-        <v>0.2769640302583039</v>
+        <v>0.2909603232008314</v>
       </c>
       <c r="Q8">
-        <v>2737.463471754822</v>
+        <v>0.5020378882705555</v>
       </c>
       <c r="R8">
-        <v>2737.463471754822</v>
+        <v>4.518340994435</v>
       </c>
       <c r="S8">
-        <v>0.1869052175238102</v>
+        <v>2.448897729175008E-05</v>
       </c>
       <c r="T8">
-        <v>0.1869052175238102</v>
+        <v>2.709595026407967E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H9">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I9">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J9">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15128893857904</v>
+        <v>3.343997</v>
       </c>
       <c r="N9">
-        <v>3.15128893857904</v>
+        <v>10.031991</v>
       </c>
       <c r="O9">
-        <v>0.11108404662316</v>
+        <v>0.1018134016252344</v>
       </c>
       <c r="P9">
-        <v>0.11108404662316</v>
+        <v>0.1126422235666741</v>
       </c>
       <c r="Q9">
-        <v>1097.935062693915</v>
+        <v>0.1943586789683333</v>
       </c>
       <c r="R9">
-        <v>1097.935062693915</v>
+        <v>1.749228110715</v>
       </c>
       <c r="S9">
-        <v>0.07496348128009056</v>
+        <v>9.480649542420622E-06</v>
       </c>
       <c r="T9">
-        <v>0.07496348128009056</v>
+        <v>1.048991166156783E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H10">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I10">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J10">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.08915051117498</v>
+        <v>8.150031666666665</v>
       </c>
       <c r="N10">
-        <v>5.08915051117498</v>
+        <v>24.450095</v>
       </c>
       <c r="O10">
-        <v>0.1793943505893028</v>
+        <v>0.2481409066266243</v>
       </c>
       <c r="P10">
-        <v>0.1793943505893028</v>
+        <v>0.2745330480476329</v>
       </c>
       <c r="Q10">
-        <v>1773.102020935338</v>
+        <v>0.4736934238527776</v>
       </c>
       <c r="R10">
-        <v>1773.102020935338</v>
+        <v>4.263240814674999</v>
       </c>
       <c r="S10">
-        <v>0.1210617136390079</v>
+        <v>2.310635864544642E-05</v>
       </c>
       <c r="T10">
-        <v>0.1210617136390079</v>
+        <v>2.556614501218563E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05812166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.174365</v>
+      </c>
+      <c r="I11">
+        <v>9.311789402065165E-05</v>
+      </c>
+      <c r="J11">
+        <v>9.3125928532108E-05</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.472446999999999</v>
+      </c>
+      <c r="N11">
+        <v>18.944894</v>
+      </c>
+      <c r="O11">
+        <v>0.2884039820564273</v>
+      </c>
+      <c r="P11">
+        <v>0.2127189892210772</v>
+      </c>
+      <c r="Q11">
+        <v>0.5505544070516666</v>
+      </c>
+      <c r="R11">
+        <v>3.303326442309999</v>
+      </c>
+      <c r="S11">
+        <v>2.685557143626432E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.980965338762428E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H12">
+        <v>812.307949</v>
+      </c>
+      <c r="I12">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J12">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.240187666666666</v>
+      </c>
+      <c r="N12">
+        <v>9.720562999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.09865275843473079</v>
+      </c>
+      <c r="P12">
+        <v>0.1091454159637843</v>
+      </c>
+      <c r="Q12">
+        <v>877.3433992950318</v>
+      </c>
+      <c r="R12">
+        <v>7896.090593655286</v>
+      </c>
+      <c r="S12">
+        <v>0.04279605799557531</v>
+      </c>
+      <c r="T12">
+        <v>0.04735191041797516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H13">
+        <v>812.307949</v>
+      </c>
+      <c r="I13">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J13">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.637706333333334</v>
+      </c>
+      <c r="N13">
+        <v>25.913119</v>
+      </c>
+      <c r="O13">
+        <v>0.2629889512569831</v>
+      </c>
+      <c r="P13">
+        <v>0.2909603232008314</v>
+      </c>
+      <c r="Q13">
+        <v>2338.82583856477</v>
+      </c>
+      <c r="R13">
+        <v>21049.43254708293</v>
+      </c>
+      <c r="S13">
+        <v>0.1140859169957794</v>
+      </c>
+      <c r="T13">
+        <v>0.1262309281405131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H14">
+        <v>812.307949</v>
+      </c>
+      <c r="I14">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J14">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.343997</v>
+      </c>
+      <c r="N14">
+        <v>10.031991</v>
+      </c>
+      <c r="O14">
+        <v>0.1018134016252344</v>
+      </c>
+      <c r="P14">
+        <v>0.1126422235666741</v>
+      </c>
+      <c r="Q14">
+        <v>905.4517815107176</v>
+      </c>
+      <c r="R14">
+        <v>8149.066033596459</v>
+      </c>
+      <c r="S14">
+        <v>0.04416716075468979</v>
+      </c>
+      <c r="T14">
+        <v>0.04886897385942903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>348.408249479335</v>
-      </c>
-      <c r="H11">
-        <v>348.408249479335</v>
-      </c>
-      <c r="I11">
-        <v>0.6748357082668732</v>
-      </c>
-      <c r="J11">
-        <v>0.6748357082668732</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.46019922993406</v>
-      </c>
-      <c r="N11">
-        <v>9.46019922993406</v>
-      </c>
-      <c r="O11">
-        <v>0.3334753597035227</v>
-      </c>
-      <c r="P11">
-        <v>0.3334753597035227</v>
-      </c>
-      <c r="Q11">
-        <v>3296.011453427079</v>
-      </c>
-      <c r="R11">
-        <v>3296.011453427079</v>
-      </c>
-      <c r="S11">
-        <v>0.2250410805550771</v>
-      </c>
-      <c r="T11">
-        <v>0.2250410805550771</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H15">
+        <v>812.307949</v>
+      </c>
+      <c r="I15">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J15">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.150031666666665</v>
+      </c>
+      <c r="N15">
+        <v>24.450095</v>
+      </c>
+      <c r="O15">
+        <v>0.2481409066266243</v>
+      </c>
+      <c r="P15">
+        <v>0.2745330480476329</v>
+      </c>
+      <c r="Q15">
+        <v>2206.77850247835</v>
+      </c>
+      <c r="R15">
+        <v>19861.00652230515</v>
+      </c>
+      <c r="S15">
+        <v>0.107644761277441</v>
+      </c>
+      <c r="T15">
+        <v>0.1191040794808883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H16">
+        <v>812.307949</v>
+      </c>
+      <c r="I16">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J16">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.472446999999999</v>
+      </c>
+      <c r="N16">
+        <v>18.944894</v>
+      </c>
+      <c r="O16">
+        <v>0.2884039820564273</v>
+      </c>
+      <c r="P16">
+        <v>0.2127189892210772</v>
+      </c>
+      <c r="Q16">
+        <v>2564.847998193734</v>
+      </c>
+      <c r="R16">
+        <v>15389.0879891624</v>
+      </c>
+      <c r="S16">
+        <v>0.1251110839481252</v>
+      </c>
+      <c r="T16">
+        <v>0.09228651916211386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H17">
+        <v>1059.371032</v>
+      </c>
+      <c r="I17">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J17">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.240187666666666</v>
+      </c>
+      <c r="N17">
+        <v>9.720562999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.09865275843473079</v>
+      </c>
+      <c r="P17">
+        <v>0.1091454159637843</v>
+      </c>
+      <c r="Q17">
+        <v>1144.186984103446</v>
+      </c>
+      <c r="R17">
+        <v>10297.68285693101</v>
+      </c>
+      <c r="S17">
+        <v>0.05581245903122938</v>
+      </c>
+      <c r="T17">
+        <v>0.06175397183840915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H18">
+        <v>1059.371032</v>
+      </c>
+      <c r="I18">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J18">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.637706333333334</v>
+      </c>
+      <c r="N18">
+        <v>25.913119</v>
+      </c>
+      <c r="O18">
+        <v>0.2629889512569831</v>
+      </c>
+      <c r="P18">
+        <v>0.2909603232008314</v>
+      </c>
+      <c r="Q18">
+        <v>3050.17862415209</v>
+      </c>
+      <c r="R18">
+        <v>27451.60761736881</v>
+      </c>
+      <c r="S18">
+        <v>0.1487850953240951</v>
+      </c>
+      <c r="T18">
+        <v>0.1646240059316879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H19">
+        <v>1059.371032</v>
+      </c>
+      <c r="I19">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J19">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.343997</v>
+      </c>
+      <c r="N19">
+        <v>10.031991</v>
+      </c>
+      <c r="O19">
+        <v>0.1018134016252344</v>
+      </c>
+      <c r="P19">
+        <v>0.1126422235666741</v>
+      </c>
+      <c r="Q19">
+        <v>1180.844517631635</v>
+      </c>
+      <c r="R19">
+        <v>10627.60065868471</v>
+      </c>
+      <c r="S19">
+        <v>0.05760058205364874</v>
+      </c>
+      <c r="T19">
+        <v>0.0637324494164766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H20">
+        <v>1059.371032</v>
+      </c>
+      <c r="I20">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J20">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.150031666666665</v>
+      </c>
+      <c r="N20">
+        <v>24.450095</v>
+      </c>
+      <c r="O20">
+        <v>0.2481409066266243</v>
+      </c>
+      <c r="P20">
+        <v>0.2745330480476329</v>
+      </c>
+      <c r="Q20">
+        <v>2877.969152516448</v>
+      </c>
+      <c r="R20">
+        <v>25901.72237264804</v>
+      </c>
+      <c r="S20">
+        <v>0.1403848651047441</v>
+      </c>
+      <c r="T20">
+        <v>0.1553295295834643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H21">
+        <v>1059.371032</v>
+      </c>
+      <c r="I21">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J21">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.472446999999999</v>
+      </c>
+      <c r="N21">
+        <v>18.944894</v>
+      </c>
+      <c r="O21">
+        <v>0.2884039820564273</v>
+      </c>
+      <c r="P21">
+        <v>0.2127189892210772</v>
+      </c>
+      <c r="Q21">
+        <v>3344.945317985101</v>
+      </c>
+      <c r="R21">
+        <v>20069.67190791061</v>
+      </c>
+      <c r="S21">
+        <v>0.1631635616516219</v>
+      </c>
+      <c r="T21">
+        <v>0.1203554208287778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.161553</v>
+      </c>
+      <c r="H22">
+        <v>0.323106</v>
+      </c>
+      <c r="I22">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J22">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.240187666666666</v>
+      </c>
+      <c r="N22">
+        <v>9.720562999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.09865275843473079</v>
+      </c>
+      <c r="P22">
+        <v>0.1091454159637843</v>
+      </c>
+      <c r="Q22">
+        <v>0.5234620381129999</v>
+      </c>
+      <c r="R22">
+        <v>3.140772228678</v>
+      </c>
+      <c r="S22">
+        <v>2.553402893276073E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.883483522024513E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.161553</v>
+      </c>
+      <c r="H23">
+        <v>0.323106</v>
+      </c>
+      <c r="I23">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J23">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.637706333333334</v>
+      </c>
+      <c r="N23">
+        <v>25.913119</v>
+      </c>
+      <c r="O23">
+        <v>0.2629889512569831</v>
+      </c>
+      <c r="P23">
+        <v>0.2909603232008314</v>
+      </c>
+      <c r="Q23">
+        <v>1.395447371269</v>
+      </c>
+      <c r="R23">
+        <v>8.372684227614</v>
+      </c>
+      <c r="S23">
+        <v>6.806872506089125E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.020998541006352E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.161553</v>
+      </c>
+      <c r="H24">
+        <v>0.323106</v>
+      </c>
+      <c r="I24">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J24">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.343997</v>
+      </c>
+      <c r="N24">
+        <v>10.031991</v>
+      </c>
+      <c r="O24">
+        <v>0.1018134016252344</v>
+      </c>
+      <c r="P24">
+        <v>0.1126422235666741</v>
+      </c>
+      <c r="Q24">
+        <v>0.540232747341</v>
+      </c>
+      <c r="R24">
+        <v>3.241396484046</v>
+      </c>
+      <c r="S24">
+        <v>2.635208973463732E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.943826683865761E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.161553</v>
+      </c>
+      <c r="H25">
+        <v>0.323106</v>
+      </c>
+      <c r="I25">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J25">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.150031666666665</v>
+      </c>
+      <c r="N25">
+        <v>24.450095</v>
+      </c>
+      <c r="O25">
+        <v>0.2481409066266243</v>
+      </c>
+      <c r="P25">
+        <v>0.2745330480476329</v>
+      </c>
+      <c r="Q25">
+        <v>1.316662065845</v>
+      </c>
+      <c r="R25">
+        <v>7.899972395069999</v>
+      </c>
+      <c r="S25">
+        <v>6.422564548357421E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.737518911655006E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.161553</v>
+      </c>
+      <c r="H26">
+        <v>0.323106</v>
+      </c>
+      <c r="I26">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J26">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.472446999999999</v>
+      </c>
+      <c r="N26">
+        <v>18.944894</v>
+      </c>
+      <c r="O26">
+        <v>0.2884039820564273</v>
+      </c>
+      <c r="P26">
+        <v>0.2127189892210772</v>
+      </c>
+      <c r="Q26">
+        <v>1.530302230191</v>
+      </c>
+      <c r="R26">
+        <v>6.121208920763999</v>
+      </c>
+      <c r="S26">
+        <v>7.464682933345815E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.670815741382578E-05</v>
       </c>
     </row>
   </sheetData>
